--- a/va_facility_data_2025-02-20/Sepulveda VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Sepulveda%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Sepulveda VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Sepulveda%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R7f3372db80fc46d5b6fccfd222f3e9e0"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R48ab8c6248b2488c834509cb53482cee"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rd62ca31f734341ec829b01a92b13655b"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rb4bdf3b1544f4f959ca208fe49da3d3b"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Re03ec9e978aa48908b7657410e456bdf"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R628fcd03e2804351a93d6ce29277806a"/>
   </x:sheets>
 </x:workbook>
 </file>
